--- a/biology/Botanique/Magnolia_krusei/Magnolia_krusei.xlsx
+++ b/biology/Botanique/Magnolia_krusei/Magnolia_krusei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia krusei est une espèce d'arbres de la famille des Magnoliacées endémique du Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre mesure jusqu'à 10 m de haut pour un tronc de 50 à 100 cm de diamètre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre mesure jusqu'à 10 m de haut pour un tronc de 50 à 100 cm de diamètre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente dans l'état de Guerrero. Elle pousse dans la forêt de nuage. Elle est fréquemment associée avec des espèces du genre Quercus (chênes)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente dans l'état de Guerrero. Elle pousse dans la forêt de nuage. Elle est fréquemment associée avec des espèces du genre Quercus (chênes).
 </t>
         </is>
       </c>
